--- a/data/trans_camb/P15_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_5-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-41,55</t>
+          <t>-35,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-58,64</t>
+          <t>-64,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,59</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-20,36</t>
+          <t>-16,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-39,32</t>
+          <t>-34,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,6</t>
+          <t>-24,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-49,03</t>
+          <t>-48,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 10,45</t>
+          <t>-16,41; 16,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-57,03; -25,03</t>
+          <t>-56,79; -12,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-71,19; -42,24</t>
+          <t>-81,12; -42,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 23,08</t>
+          <t>-7,64; 24,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,3; -4,36</t>
+          <t>-33,69; 4,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -22,58</t>
+          <t>-52,13; -12,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 13,51</t>
+          <t>-6,58; 16,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,91; -18,63</t>
+          <t>-39,03; -10,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-58,56; -35,22</t>
+          <t>-60,95; -34,36</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,7%</t>
+          <t>-40,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-68,74%</t>
+          <t>-74,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,74%</t>
+          <t>-21,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,65%</t>
+          <t>-44,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-30,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-61,08%</t>
+          <t>-60,37%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 13,53</t>
+          <t>-17,4; 21,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,3; -30,89</t>
+          <t>-63,63; -16,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,5; -51,73</t>
+          <t>-89,28; -51,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 34,64</t>
+          <t>-8,88; 37,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,82; -6,73</t>
+          <t>-41,38; 5,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,36; -32,67</t>
+          <t>-62,92; -18,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 18,28</t>
+          <t>-7,69; 22,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,87; -24,55</t>
+          <t>-45,61; -13,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,45; -47,12</t>
+          <t>-72,08; -45,02</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,55</t>
+          <t>19,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-27,09</t>
+          <t>-26,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-31,55</t>
+          <t>-22,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,09</t>
+          <t>-30,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-42,45</t>
+          <t>-46,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-26,3</t>
+          <t>-28,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-37,18</t>
+          <t>-34,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 27,66</t>
+          <t>-0,06; 40,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-43,82; -8,3</t>
+          <t>-51,29; 0,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,97; -9,58</t>
+          <t>-53,07; 13,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 17,54</t>
+          <t>1,51; 22,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,79; -11,05</t>
+          <t>-47,83; -15,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,5; -28,59</t>
+          <t>-61,66; -28,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 18,58</t>
+          <t>4,25; 26,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,28; -14,76</t>
+          <t>-44,12; -12,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-48,49; -22,03</t>
+          <t>-50,83; -14,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,32%</t>
+          <t>-39,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-43,46%</t>
+          <t>-34,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,8%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,41%</t>
+          <t>-54,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,48%</t>
+          <t>-38,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-47,32%</t>
+          <t>-45,54%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 45,08</t>
+          <t>-0,36; 83,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,77; -12,88</t>
+          <t>-69,66; 2,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,97; -12,7</t>
+          <t>-76,07; 30,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 23,19</t>
+          <t>1,83; 29,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -14,2</t>
+          <t>-54,27; -20,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,72; -36,08</t>
+          <t>-69,78; -37,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 25,21</t>
+          <t>5,31; 40,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,89; -19,9</t>
+          <t>-55,63; -18,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,02; -30,74</t>
+          <t>-65,14; -19,33</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,06</t>
+          <t>-29,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-31,6</t>
+          <t>-48,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-20,69</t>
+          <t>-17,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-42,07</t>
+          <t>-36,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-17,09</t>
+          <t>-22,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-36,93</t>
+          <t>-41,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 23,8</t>
+          <t>-10,91; 18,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 0,08</t>
+          <t>-46,35; -12,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-45,94; -15,8</t>
+          <t>-63,45; -30,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 17,71</t>
+          <t>-6,4; 18,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,62; -8,49</t>
+          <t>-30,06; -4,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -30,61</t>
+          <t>-48,79; -24,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 17,19</t>
+          <t>-3,61; 15,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,1; -7,26</t>
+          <t>-31,69; -10,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-45,72; -25,18</t>
+          <t>-50,97; -29,65</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-18,13%</t>
+          <t>-38,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,87%</t>
+          <t>-63,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,13%</t>
+          <t>-25,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-59,23%</t>
+          <t>-52,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-23,91%</t>
+          <t>-30,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-51,65%</t>
+          <t>-57,45%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 36,0</t>
+          <t>-12,8; 27,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 0,38</t>
+          <t>-57,08; -17,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,23; -22,07</t>
+          <t>-78,11; -44,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 27,49</t>
+          <t>-8,57; 30,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,55; -13,29</t>
+          <t>-41,09; -7,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -46,52</t>
+          <t>-66,74; -37,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 25,43</t>
+          <t>-4,82; 23,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,91; -10,8</t>
+          <t>-42,32; -17,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,96; -36,36</t>
+          <t>-67,35; -44,09</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-18,42</t>
+          <t>-18,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-34,29</t>
+          <t>-34,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-22,89</t>
+          <t>-23,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-37,85</t>
+          <t>-35,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-20,88</t>
+          <t>-21,11</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-36,29</t>
+          <t>-35,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 21,61</t>
+          <t>-3,55; 24,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,23; -7,3</t>
+          <t>-34,26; -2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-44,7; -22,26</t>
+          <t>-48,98; -18,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 18,47</t>
+          <t>-0,05; 22,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -12,61</t>
+          <t>-36,12; -11,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-47,0; -27,34</t>
+          <t>-47,5; -22,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 17,1</t>
+          <t>1,48; 20,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-28,0; -13,2</t>
+          <t>-30,68; -10,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -28,37</t>
+          <t>-44,72; -24,84</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,13%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,49%</t>
+          <t>-51,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-30,64%</t>
+          <t>-32,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-50,67%</t>
+          <t>-49,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-29,15%</t>
+          <t>-30,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-50,66%</t>
+          <t>-50,03%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 35,39</t>
+          <t>-4,32; 43,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,42; -11,34</t>
+          <t>-46,23; -3,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,3; -35,13</t>
+          <t>-66,84; -31,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 26,97</t>
+          <t>0,08; 35,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,61; -18,14</t>
+          <t>-46,48; -16,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,37; -38,25</t>
+          <t>-61,56; -33,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 25,04</t>
+          <t>1,92; 32,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,32; -19,5</t>
+          <t>-41,8; -16,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,24; -41,45</t>
+          <t>-60,52; -38,43</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-18,63</t>
+          <t>-16,28</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-39,61</t>
+          <t>-44,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-22,86</t>
+          <t>-28,15</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-37,97</t>
+          <t>-40,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-20,63</t>
+          <t>-21,17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-38,81</t>
+          <t>-42,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 17,3</t>
+          <t>-5,66; 20,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,9; -5,02</t>
+          <t>-32,23; 0,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-51,83; -27,13</t>
+          <t>-61,06; -30,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 17,36</t>
+          <t>-8,86; 22,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-35,07; -11,94</t>
+          <t>-46,08; -9,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-49,54; -25,9</t>
+          <t>-57,23; -22,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 13,79</t>
+          <t>-3,97; 16,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -11,85</t>
+          <t>-32,96; -8,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-47,41; -29,39</t>
+          <t>-54,36; -31,19</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-23,46%</t>
+          <t>-21,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-49,86%</t>
+          <t>-57,94%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-29,83%</t>
+          <t>-38,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-49,54%</t>
+          <t>-54,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-26,42%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-49,71%</t>
+          <t>-56,41%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 24,4</t>
+          <t>-6,7; 29,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,16; -7,3</t>
+          <t>-38,47; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -36,39</t>
+          <t>-73,34; -42,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 24,56</t>
+          <t>-10,56; 36,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,75; -17,0</t>
+          <t>-57,79; -15,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,56; -35,35</t>
+          <t>-72,42; -33,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 19,02</t>
+          <t>-4,84; 24,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,1; -15,85</t>
+          <t>-41,29; -11,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-58,93; -39,42</t>
+          <t>-68,12; -44,28</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-22,74</t>
+          <t>-37,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-14,91</t>
+          <t>-29,43</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-17,66</t>
+          <t>-32,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 20,82</t>
+          <t>-2,14; 27,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 8,04</t>
+          <t>-26,55; 9,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-36,16; -7,26</t>
+          <t>-55,79; -17,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 14,39</t>
+          <t>-0,15; 22,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 4,77</t>
+          <t>-19,9; 10,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 0,62</t>
+          <t>-48,11; -12,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 13,78</t>
+          <t>2,77; 21,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 2,56</t>
+          <t>-18,06; 6,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-27,35; -5,12</t>
+          <t>-45,31; -17,62</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,9%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-29,3%</t>
+          <t>-46,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>-5,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>-34,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-7,71%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>-39,39%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 30,01</t>
+          <t>-2,15; 42,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 9,9</t>
+          <t>-30,98; 13,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,34; -9,48</t>
+          <t>-66,21; -24,08</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 17,7</t>
+          <t>0,01; 31,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 6,09</t>
+          <t>-22,22; 13,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 0,78</t>
+          <t>-54,19; -15,64</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 17,78</t>
+          <t>3,23; 29,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 3,01</t>
+          <t>-21,07; 7,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,91; -5,96</t>
+          <t>-52,65; -24,12</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-20,95</t>
+          <t>-22,39</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-36,69</t>
+          <t>-40,94</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-20,25</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-35,45</t>
+          <t>-36,82</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-20,44</t>
+          <t>-21,29</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-36,12</t>
+          <t>-38,87</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,58; 13,45</t>
+          <t>3,14; 16,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-26,78; -15,4</t>
+          <t>-31,17; -13,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-42,6; -30,14</t>
+          <t>-49,14; -29,97</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,03</t>
+          <t>3,12; 14,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -14,7</t>
+          <t>-26,29; -13,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -28,44</t>
+          <t>-42,9; -29,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,38</t>
+          <t>5,29; 13,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -16,48</t>
+          <t>-26,77; -16,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-40,22; -31,0</t>
+          <t>-43,44; -32,36</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-27,92%</t>
+          <t>-30,12%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-48,89%</t>
+          <t>-55,08%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-25,68%</t>
+          <t>-26,64%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>-48,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-26,76%</t>
+          <t>-28,29%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>-51,67%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4,65; 18,69</t>
+          <t>3,96; 23,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,91; -21,17</t>
+          <t>-40,68; -18,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -40,92</t>
+          <t>-64,01; -41,63</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,06</t>
+          <t>3,96; 19,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,65; -19,57</t>
+          <t>-33,83; -18,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -37,52</t>
+          <t>-54,94; -40,52</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,26</t>
+          <t>6,9; 19,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-31,57; -21,92</t>
+          <t>-34,69; -22,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -41,35</t>
+          <t>-56,87; -44,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
